--- a/aps/src/dados/DadosDengue.xlsx
+++ b/aps/src/dados/DadosDengue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\git\APS-2021\aps\src\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\git\APS-2021\aps\src\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE1D05-61A8-470E-BEAD-C9B1D1AEC29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165ED32-1919-4C9B-ACFD-E8B64063CF72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="1590" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="1335" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
